--- a/fsdata/큐리언트.xlsx
+++ b/fsdata/큐리언트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3982A9-F533-41FE-A597-7085F30C9C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02311C-1289-4946-926F-F11E1F3622B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="1380" windowWidth="16710" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="395">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -1207,6 +1207,10 @@
   </si>
   <si>
     <t>영업이익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3286,10 +3290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3961,12 +3965,27 @@
         <v>-2109</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3974,7 +3993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
